--- a/ClimateStudies/OutputProcessing/NewCaseData.xlsx
+++ b/ClimateStudies/OutputProcessing/NewCaseData.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="64">
-  <si>
-    <t>FileName</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="129">
+  <si>
+    <t>CaseNum</t>
   </si>
   <si>
     <t>Cost/COE
@@ -27,6 +27,9 @@
 (kW)</t>
   </si>
   <si>
+    <t>FileName</t>
+  </si>
+  <si>
     <t>Case4WadenaMNDfa</t>
   </si>
   <si>
@@ -208,6 +211,198 @@
   </si>
   <si>
     <t>Case4AnchorageDfc</t>
+  </si>
+  <si>
+    <t>Case1YumaAZBwh</t>
+  </si>
+  <si>
+    <t>Case1WadenaMNDfa</t>
+  </si>
+  <si>
+    <t>Case1VegasNVBwh</t>
+  </si>
+  <si>
+    <t>Case1UPMichDfb</t>
+  </si>
+  <si>
+    <t>Case1TexasOilBSh</t>
+  </si>
+  <si>
+    <t>Case1SyracuseDfb</t>
+  </si>
+  <si>
+    <t>Case1SouthBendINDfa</t>
+  </si>
+  <si>
+    <t>Case1SacramentoCsa</t>
+  </si>
+  <si>
+    <t>Case1RichmondVACfa</t>
+  </si>
+  <si>
+    <t>Case1ReddingCACsa</t>
+  </si>
+  <si>
+    <t>Case1RapidCitySDBsk</t>
+  </si>
+  <si>
+    <t>Case1RaleighNCCfa</t>
+  </si>
+  <si>
+    <t>Case1PuebloBsk</t>
+  </si>
+  <si>
+    <t>Case1PrescottAZCsa</t>
+  </si>
+  <si>
+    <t>Case1PhoenixAZBwh</t>
+  </si>
+  <si>
+    <t>Case1ORNLCfa</t>
+  </si>
+  <si>
+    <t>Case1OKCityCfa</t>
+  </si>
+  <si>
+    <t>Case1NOLACfa</t>
+  </si>
+  <si>
+    <t>Case1NeahBayCfb</t>
+  </si>
+  <si>
+    <t>Case1MoscowIDCsb</t>
+  </si>
+  <si>
+    <t>Case1MobileALCfa</t>
+  </si>
+  <si>
+    <t>Case1MiamiAf</t>
+  </si>
+  <si>
+    <t>Case1MemphisTNCfa</t>
+  </si>
+  <si>
+    <t>Case1MedfordORCsa</t>
+  </si>
+  <si>
+    <t>Case1MarlintonWVCfb</t>
+  </si>
+  <si>
+    <t>Case1LosAlamosNMDfb</t>
+  </si>
+  <si>
+    <t>Case1LongviewCsb</t>
+  </si>
+  <si>
+    <t>Case1LittleRockARCfa</t>
+  </si>
+  <si>
+    <t>Case1LincolnNEDfa</t>
+  </si>
+  <si>
+    <t>Case1LaredoTXBSh</t>
+  </si>
+  <si>
+    <t>Case1LancasterPADfa</t>
+  </si>
+  <si>
+    <t>Case1KootenaiCountyIDDsb</t>
+  </si>
+  <si>
+    <t>Case1KauaiCfb</t>
+  </si>
+  <si>
+    <t>Case1JacksonMSCfa</t>
+  </si>
+  <si>
+    <t>Case1IdahoFallsDfb</t>
+  </si>
+  <si>
+    <t>Case1HiloAf</t>
+  </si>
+  <si>
+    <t>Case1GreatFallsMTBsk</t>
+  </si>
+  <si>
+    <t>Case1FlagstaffDsb</t>
+  </si>
+  <si>
+    <t>Case1EvergladesAM</t>
+  </si>
+  <si>
+    <t>Case1EielsonAFBDfC</t>
+  </si>
+  <si>
+    <t>Case1DetroitMIDfa</t>
+  </si>
+  <si>
+    <t>Case1DesMoinesIADfa</t>
+  </si>
+  <si>
+    <t>Case1CrestedButteCODfc</t>
+  </si>
+  <si>
+    <t>Case1ColumbusOHDfa</t>
+  </si>
+  <si>
+    <t>Case1ColumbiaMOCfa</t>
+  </si>
+  <si>
+    <t>Case1CoalvilleUTDfb</t>
+  </si>
+  <si>
+    <t>Case1ChicagoDfa</t>
+  </si>
+  <si>
+    <t>Case1CheyenneWYBsk</t>
+  </si>
+  <si>
+    <t>Case1CarsonCityNVBsk</t>
+  </si>
+  <si>
+    <t>Case1ButtonwillowBwk</t>
+  </si>
+  <si>
+    <t>Case1BurlingtonVTDfa</t>
+  </si>
+  <si>
+    <t>Case1BrewsterMADfb</t>
+  </si>
+  <si>
+    <t>Case1BoiseIDBSk</t>
+  </si>
+  <si>
+    <t>Case1BlaineCountyMontanaBSk</t>
+  </si>
+  <si>
+    <t>Case1BismarckNDDfb</t>
+  </si>
+  <si>
+    <t>Case1BirminghamALCfa</t>
+  </si>
+  <si>
+    <t>Case1BentonCountyOregonCsb</t>
+  </si>
+  <si>
+    <t>Case1BendOreBsk</t>
+  </si>
+  <si>
+    <t>Case1BangorMEDfb</t>
+  </si>
+  <si>
+    <t>Case1AtlantaGACfa</t>
+  </si>
+  <si>
+    <t>Case1AshlandDfb</t>
+  </si>
+  <si>
+    <t>Case1AnchorageDfc</t>
+  </si>
+  <si>
+    <t>Case4</t>
+  </si>
+  <si>
+    <t>Case1</t>
   </si>
 </sst>
 </file>
@@ -565,13 +760,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,13 +776,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="C2">
         <v>0.1386892199516296</v>
@@ -596,12 +794,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="C3">
         <v>0.155194416642189</v>
@@ -610,12 +808,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <v>0.162385493516922</v>
@@ -624,12 +822,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>127</v>
       </c>
       <c r="C5">
         <v>0.1321396380662918</v>
@@ -638,12 +836,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="C6">
         <v>0.1785235553979874</v>
@@ -652,12 +850,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="C7">
         <v>0.1512635499238968</v>
@@ -666,12 +864,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C8">
         <v>0.1648051738739014</v>
@@ -680,12 +878,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="C9">
         <v>0.189626470208168</v>
@@ -694,12 +892,12 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="C10">
         <v>0.1811612844467163</v>
@@ -708,12 +906,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="C11">
         <v>0.1473852843046188</v>
@@ -722,12 +920,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>0.1845078766345978</v>
@@ -736,12 +934,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="C13">
         <v>0.1583845615386963</v>
@@ -750,12 +948,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="C14">
         <v>0.1570336669683456</v>
@@ -764,12 +962,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="C15">
         <v>0.1609541177749634</v>
@@ -778,12 +976,12 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="C16">
         <v>0.1887426823377609</v>
@@ -794,10 +992,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="C17">
         <v>0.1388622373342514</v>
@@ -808,10 +1006,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="C18">
         <v>0.1759191602468491</v>
@@ -822,10 +1020,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="C19">
         <v>0.1848120093345642</v>
@@ -836,10 +1034,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="C20">
         <v>0.1870208531618118</v>
@@ -850,10 +1048,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="C21">
         <v>0.1885417401790619</v>
@@ -864,10 +1062,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="C22">
         <v>0.1632670015096664</v>
@@ -878,10 +1076,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="C23">
         <v>0.1863800287246704</v>
@@ -892,10 +1090,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="C24">
         <v>0.1947810351848602</v>
@@ -906,10 +1104,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="C25">
         <v>0.167387917637825</v>
@@ -920,10 +1118,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="C26">
         <v>0.1969873756170273</v>
@@ -934,10 +1132,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="C27">
         <v>0.1805821061134338</v>
@@ -948,10 +1146,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="C28">
         <v>0.1389370560646057</v>
@@ -962,10 +1160,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="C29">
         <v>0.1439777314662933</v>
@@ -976,10 +1174,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="C30">
         <v>0.1895774155855179</v>
@@ -990,10 +1188,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="C31">
         <v>0.1905342936515808</v>
@@ -1004,10 +1202,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="C32">
         <v>0.1345675587654114</v>
@@ -1018,10 +1216,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="C33">
         <v>0.1898387521505356</v>
@@ -1032,10 +1230,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="C34">
         <v>0.1637423932552338</v>
@@ -1046,10 +1244,10 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="C35">
         <v>0.1676653921604156</v>
@@ -1060,10 +1258,10 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="C36">
         <v>0.1526221185922623</v>
@@ -1074,10 +1272,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="C37">
         <v>0.1620344370603561</v>
@@ -1088,10 +1286,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="C38">
         <v>0.1742258816957474</v>
@@ -1102,10 +1300,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="C39">
         <v>0.2015433460474014</v>
@@ -1116,10 +1314,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C40">
         <v>0.1557336747646332</v>
@@ -1130,10 +1328,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="C41">
         <v>0.1412370055913925</v>
@@ -1144,10 +1342,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="C42">
         <v>0.1723110377788544</v>
@@ -1158,10 +1356,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="C43">
         <v>0.1811380684375763</v>
@@ -1172,10 +1370,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C44">
         <v>0.1686954498291016</v>
@@ -1186,10 +1384,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="C45">
         <v>0.1726727932691574</v>
@@ -1200,10 +1398,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="C46">
         <v>0.1551062911748886</v>
@@ -1214,10 +1412,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="C47">
         <v>0.1370635777711868</v>
@@ -1228,10 +1426,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="C48">
         <v>0.185362234711647</v>
@@ -1242,10 +1440,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="C49">
         <v>0.1688858419656754</v>
@@ -1256,10 +1454,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="C50">
         <v>0.1950893998146057</v>
@@ -1270,10 +1468,10 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="C51">
         <v>0.139139249920845</v>
@@ -1284,10 +1482,10 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="C52">
         <v>0.1722059845924377</v>
@@ -1298,10 +1496,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="C53">
         <v>0.140253558754921</v>
@@ -1312,10 +1510,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="C54">
         <v>0.1383648216724396</v>
@@ -1326,10 +1524,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="C55">
         <v>0.190834641456604</v>
@@ -1340,10 +1538,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="C56">
         <v>0.1906531155109406</v>
@@ -1354,10 +1552,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="C57">
         <v>0.1701061427593231</v>
@@ -1368,10 +1566,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="C58">
         <v>0.1933861672878265</v>
@@ -1382,10 +1580,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C59">
         <v>0.1595003604888916</v>
@@ -1396,10 +1594,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="C60">
         <v>0.1893107444047928</v>
@@ -1410,10 +1608,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="C61">
         <v>0.1719554662704468</v>
@@ -1424,16 +1622,884 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="C62">
         <v>0.2015632688999176</v>
       </c>
       <c r="D62">
         <v>4000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63">
+        <v>0.1632217317819595</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64">
+        <v>0.1544122099876404</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65">
+        <v>0.17011559009552</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66">
+        <v>0.1851491928100586</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67">
+        <v>0.134756475687027</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68">
+        <v>0.22161965072155</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69">
+        <v>0.1708641052246094</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70">
+        <v>0.2479335814714432</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71">
+        <v>0.274076521396637</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72">
+        <v>0.2843465507030487</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73">
+        <v>0.1737749129533768</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74">
+        <v>0.2452609241008759</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75">
+        <v>0.1861624866724014</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76">
+        <v>0.1897651553153992</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77">
+        <v>0.1717848777770996</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C78">
+        <v>0.2981322407722473</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>128</v>
+      </c>
+      <c r="C79">
+        <v>0.1577692478895187</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80">
+        <v>0.2260055243968964</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81">
+        <v>0.2377744317054749</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82">
+        <v>0.2593738734722137</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83">
+        <v>0.256877988576889</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84">
+        <v>0.1387719810009003</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85">
+        <v>0.1967675387859344</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86">
+        <v>0.3610029816627502</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>128</v>
+      </c>
+      <c r="C87">
+        <v>0.2534724473953247</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>128</v>
+      </c>
+      <c r="C88">
+        <v>0.2022130936384201</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>128</v>
+      </c>
+      <c r="C89">
+        <v>0.3567447066307068</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90">
+        <v>0.2435668557882309</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>128</v>
+      </c>
+      <c r="C91">
+        <v>0.1567805707454681</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>128</v>
+      </c>
+      <c r="C92">
+        <v>0.1748713552951813</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93">
+        <v>0.2755715548992157</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>128</v>
+      </c>
+      <c r="C94">
+        <v>0.3371167480945587</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95">
+        <v>0.1510546058416367</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96">
+        <v>0.2635131180286407</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>128</v>
+      </c>
+      <c r="C97">
+        <v>0.2240752577781677</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98">
+        <v>0.2054772228002548</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>128</v>
+      </c>
+      <c r="C99">
+        <v>0.1689421981573105</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100">
+        <v>0.2067031562328339</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>128</v>
+      </c>
+      <c r="C101">
+        <v>0.2217249274253845</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102">
+        <v>0.400917649269104</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103">
+        <v>0.1763457953929901</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104">
+        <v>0.1619855016469955</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105">
+        <v>0.2289169132709503</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>128</v>
+      </c>
+      <c r="C106">
+        <v>0.2391571700572968</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>128</v>
+      </c>
+      <c r="C107">
+        <v>0.2107397764921188</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108">
+        <v>0.2520990669727325</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>128</v>
+      </c>
+      <c r="C109">
+        <v>0.1846518069505692</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110">
+        <v>0.1375516802072525</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111">
+        <v>0.2978404760360718</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>128</v>
+      </c>
+      <c r="C112">
+        <v>0.2949548661708832</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113">
+        <v>0.3234260976314545</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>128</v>
+      </c>
+      <c r="C114">
+        <v>0.1582337021827698</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115">
+        <v>0.2455868870019913</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116">
+        <v>0.1630143821239471</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>128</v>
+      </c>
+      <c r="C117">
+        <v>0.1559025198221207</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>128</v>
+      </c>
+      <c r="C118">
+        <v>0.2711388766765594</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>128</v>
+      </c>
+      <c r="C119">
+        <v>0.2768734693527222</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>128</v>
+      </c>
+      <c r="C120">
+        <v>0.2336928993463516</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>128</v>
+      </c>
+      <c r="C121">
+        <v>0.3024282157421112</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122">
+        <v>0.2525692880153656</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>128</v>
+      </c>
+      <c r="C123">
+        <v>0.2077768743038177</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124">
+        <v>0.4393435716629028</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
